--- a/biology/Médecine/Gestionnaire_de_données_biomédicales/Gestionnaire_de_données_biomédicales.xlsx
+++ b/biology/Médecine/Gestionnaire_de_données_biomédicales/Gestionnaire_de_données_biomédicales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gestionnaire_de_donn%C3%A9es_biom%C3%A9dicales</t>
+          <t>Gestionnaire_de_données_biomédicales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gestionnaire de données biomédicales (couramment appelé Data manager) est responsable de la documentation et de la qualité des données recueillies au cours des essais cliniques et des études épidémiologiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gestionnaire_de_donn%C3%A9es_biom%C3%A9dicales</t>
+          <t>Gestionnaire_de_données_biomédicales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Définition du métier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la fonction publique hospitalière[1], le gestionnaire de données biomédicales est défini dans la famille des métiers de la recherche clinique sous le code 15D80.
-Dans la recherche et l'enseignement supérieur[2], le métier s'intitule ingénieur en traitement de données biologiques (BAP A Science du vivant, Famille Professionnelle Biologie et recherche médicale, Emploi n°A2A21).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la fonction publique hospitalière, le gestionnaire de données biomédicales est défini dans la famille des métiers de la recherche clinique sous le code 15D80.
+Dans la recherche et l'enseignement supérieur, le métier s'intitule ingénieur en traitement de données biologiques (BAP A Science du vivant, Famille Professionnelle Biologie et recherche médicale, Emploi n°A2A21).
 Le gestionnaire de données biomédicales est également défini parmi les métiers des entreprises du médicament (LEEM) dans la famille Biométrie et Data Management.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gestionnaire_de_donn%C3%A9es_biom%C3%A9dicales</t>
+          <t>Gestionnaire_de_données_biomédicales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Le rôle du gestionnaire de données biomédicales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gestionnaire de données biomédicales joue un rôle clé dans la mise en place et la réalisation d’un essai clinique. Les données collectées lors d’un essai clinique sont les garantes de la sécurité et de l’efficacité des analyses statistiques ultérieures qui aiguilleront les prises de décision dans le développement de médicaments, de dispositifs médicaux, de schémas thérapeutiques ou de  qualité de prise en charge, tant pour les praticiens que pour l’industrie pharmaceutique.
 Le gestionnaire de données biomédicales est impliqué dans les premières discussions sur les modalités de recueil des données et supervise par la suite le développement d'outils de collecte de données en concordance avec le protocole de l’essai clinique.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gestionnaire_de_donn%C3%A9es_biom%C3%A9dicales</t>
+          <t>Gestionnaire_de_données_biomédicales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Cadre réglementaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sein de chaque structure de recherche, des Procédures Opératoires Standards (POS) décrivent la marche à suivre dans les activités de gestion des données pour répondre au mieux au cadre réglementaire et aux recommandations.
 Les bases de la réglementation sur les recherches biomédicales sont posées par les Bonnes pratiques cliniques du Conseil international d'harmonisation des exigences techniques pour l'enregistrement des médicaments à usage humain (CIH), avec pour les États-Unis le 21 CRF part 11 (en) de la Food and Drug Administration (FDA) pour les enregistrements informatiques des données et signatures électroniques.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gestionnaire_de_donn%C3%A9es_biom%C3%A9dicales</t>
+          <t>Gestionnaire_de_données_biomédicales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Réseaux de professionnels</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupe des Data Managers académiques (acaDM)
 Créé en novembre 2008, acaDM est le seul réseau de professionnels en France dédié à l'activité de gestion des données dans la recherche biomédicale académique. Il réunit 337 data managers issus de Centres Hospitaliers Universitaires, de Centres de Lutte Contre le Cancer, de groupes coopérateurs ou d’autres structures de recherche. À travers des groupes de travail, des forums et une conférence annuelle, il offre un espace de réflexion entre experts afin d'homogénéiser et d'améliorer les pratiques.
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gestionnaire_de_donn%C3%A9es_biom%C3%A9dicales</t>
+          <t>Gestionnaire_de_données_biomédicales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,8 +671,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>En France
-DU
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>DU
 Gestion de Données Cliniques, Clinical Data Management (Caen)
 Bioinformatique et Data Management (Paris)
 FARC TEC - Option Data Management (Saint-Etienne)
